--- a/TestDataExcel/AmazonUserData.xlsx
+++ b/TestDataExcel/AmazonUserData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAR\eclipse-workspace\Amazon.Demo\TestDataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69184926-C727-485C-9D46-7439E3D6A838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E79C94B-8CB8-40A9-B941-A6A5E2D654EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -64,13 +65,25 @@
   </si>
   <si>
     <t>1999</t>
+  </si>
+  <si>
+    <t>Anish</t>
+  </si>
+  <si>
+    <t>Sandi01</t>
+  </si>
+  <si>
+    <t>Sandi123@</t>
+  </si>
+  <si>
+    <t>99999999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +104,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -123,16 +144,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -522,4 +546,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728345B2-53EA-4CC5-9EED-10EC893C6120}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{22D19656-3718-402A-BB1A-9FD50C1EFCEE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>